--- a/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
+++ b/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.698075876966328</v>
+        <v>0.301924123033672</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.157561125454884</v>
+        <v>0.842438874545116</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0044270274587949</v>
+        <v>0.995572972541205</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.0500202294537516</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.731034482758621</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.53</v>
+        <v>9</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0074220198158839</v>
+        <v>0.264387427339251</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.136755393543562</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0889498676332745</v>
+        <v>0.648716227663098</v>
       </c>
       <c r="N29" t="n">
-        <v>1.40038109733659</v>
+        <v>2.93763808154723</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3084,7 +3084,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3094,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.477097110872938</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.509259259259259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>113</v>
+        <v>1.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.09083111940236201</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-10.1419484954134</v>
+        <v>-0.0497934118776282</v>
       </c>
       <c r="M30" t="n">
-        <v>4.19073694919658</v>
+        <v>0.0602891085369532</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0803815215950107</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3171,7 +3175,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3181,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3196,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.284972106418005</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.55</v>
+        <v>10.69</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0565853024067716</v>
+        <v>-0.0074987276071146</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.07005837768287</v>
+        <v>-0.0300668137127573</v>
       </c>
       <c r="M31" t="n">
-        <v>0.724261147119698</v>
+        <v>0.0143284587901007</v>
       </c>
       <c r="N31" t="n">
-        <v>1.24363301992905</v>
+        <v>-0.0701471244818956</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3258,7 +3266,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3268,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3283,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.200839083234887</v>
+        <v>0.002170728139653</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H32" t="n">
-        <v>0.888888888888889</v>
+        <v>0.189655172413793</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.55</v>
+        <v>0.013</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0122526275195393</v>
+        <v>0.0003319700068166</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0496224449358041</v>
+        <v>0.0001273597343922</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0268398529371801</v>
+        <v>0.0005188210227272</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.22775045809805</v>
+        <v>2.55361543705102</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3345,7 +3357,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3355,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3370,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.161618161662385</v>
+        <v>0.646009667341737</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>115.025</v>
+        <v>95</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.490859751895245</v>
+        <v>-0.496938775510204</v>
       </c>
       <c r="L33" t="n">
-        <v>-3.11059183702117</v>
+        <v>-2.28460242579743</v>
       </c>
       <c r="M33" t="n">
-        <v>0.41514774331527</v>
+        <v>1.4528213566388</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.426741796909581</v>
+        <v>-0.523093447905478</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3403,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3432,7 +3448,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3442,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.087654040404137</v>
+        <v>0.999434748704402</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>4.96</v>
+        <v>0.005</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.142290209095895</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5093134245711149</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0313721851355912</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.86875421564305</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3490,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3519,7 +3539,1166 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.65610353329492</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.435064935064935</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.09740259740259739</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.194589263283408</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.852564102564103</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.14175</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0012876880679279</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0009030521045622</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0033640784445449</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.908421917409454</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.999999474617657</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.563953488372093</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0324209003210218</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.021849047203367</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0411810835161262</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.422697527001589</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.771431087112125</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.737142857142857</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0010802536926064</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0037098250015524</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0009941690480794001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.679404838117269</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.553979171583167</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.431034482758621</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0016749816923961</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0014320867889369</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.214745208729229</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0114942528735632</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.304597701149425</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.93331885317115e-05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-8.822698817096771e-05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0003577042955259</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.3689915745661</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.38802078346612</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.804597701149425</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0049931647300068</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0153128158658396</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.021880469222036</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.375425919549386</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0074220198158839</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.136755393543562</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0889498676332745</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.40038109733659</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>113</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.09083111940236201</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-10.1419484954134</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.19073694919658</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0803815215950107</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0565853024067716</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.07005837768287</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.724261147119698</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.24363301992905</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.200839083234887</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0122526275195393</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0496224449358041</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0268398529371801</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2.22775045809805</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.161618161662385</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>115.025</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.490859751895245</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-3.11059183702117</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.41514774331527</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.426741796909581</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.087654040404137</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.142290209095895</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.5093134245711149</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0313721851355912</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-2.86875421564305</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
+++ b/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.611493536647794</v>
+        <v>0.754232922464983</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.977272727272727</v>
+        <v>0.936170212765957</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.303706043956044</v>
+        <v>-0.689150943396226</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.92011387305779</v>
+        <v>-3.56683676182926</v>
       </c>
       <c r="M2" t="n">
-        <v>0.831163139345593</v>
+        <v>1.23022933492147</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.82517250191669</v>
+        <v>-4.92250673854447</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.301924123033672</v>
+        <v>0.115433325725747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.879310344827586</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.785</v>
+        <v>10.915</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0451545329670325</v>
+        <v>-0.0543526785714285</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.111891905743756</v>
+        <v>-0.102277105441188</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0403760402308241</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.418679026119911</v>
+        <v>-0.497963156861461</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0731414523265418</v>
+        <v>0.399127533338428</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.413793103448276</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008996305418719</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0008013203578745</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0022296048924229</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N4" t="n">
-        <v>6.42593244194229</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.07836114082034321</v>
+        <v>0.08976537199573641</v>
       </c>
       <c r="G5" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.724137931034483</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
-        <v>11.2615621788284</v>
+        <v>14.9602897102897</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.49111753530341</v>
+        <v>-2.0140787922685</v>
       </c>
       <c r="M5" t="n">
-        <v>30.4566079315241</v>
+        <v>31.7209662210669</v>
       </c>
       <c r="N5" t="n">
-        <v>12.5827510377971</v>
+        <v>13.6002633729906</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.203844627891019</v>
+        <v>0.617497139536524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.892857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.160714285714286</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.403159250624052</v>
+        <v>0.998654926715525</v>
       </c>
       <c r="G7" t="n">
-        <v>0.46551724137931</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="H7" t="n">
         <v>0.0862068965517241</v>
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.000431227863046</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.529383796942125</v>
+        <v>0.0002652281736915</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.879310344827586</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1435</v>
+        <v>0.1585</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0010798861852433</v>
+        <v>0.0217804217840982</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0094398745806657</v>
+        <v>0.0123485105395796</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0057091169812142</v>
+        <v>0.030471237179816</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.752533926998833</v>
+        <v>13.7415910309768</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,39 +1202,39 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.0057057190973609</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.724137931034483</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.77</v>
+        <v>7.75</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0565791738382099</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0335558739778718</v>
+        <v>-0.09947115163719029</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0301030219780222</v>
+        <v>-0.0208240080185201</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.730053855976902</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.667908339253463</v>
+        <v>0.0007269571474004</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.88135593220339</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.152</v>
+        <v>0.165</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.003331685754412</v>
+        <v>0.0226892926152795</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.010905772248279</v>
+        <v>0.0135126516392187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0079784116338932</v>
+        <v>0.0317596717913433</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.19189852263949</v>
+        <v>13.7510864335027</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0063875156415437</v>
+        <v>5.19713471524434e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140350877192982</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.228070175438596</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.275</v>
       </c>
       <c r="K11" t="n">
-        <v>0.498918928038103</v>
+        <v>0.030103021978022</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0196900269541779</v>
       </c>
       <c r="M11" t="n">
-        <v>0.539392880738903</v>
+        <v>0.0399673645264503</v>
       </c>
       <c r="N11" t="n">
-        <v>16.6306309346034</v>
+        <v>10.9465534465534</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.439338504647071</v>
+        <v>0.0280386810377511</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.517241379310345</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.26</v>
+        <v>0.0225</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0012277310924369</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.010012892962928</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.0027894462454921</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.45658263305322</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0080167862164025</v>
+        <v>0.150355523574156</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.46551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.022</v>
+        <v>1.42</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0020462184873949</v>
+        <v>0.0282495450409463</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006604882459312</v>
+        <v>-0.02279784493815</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0035564362097375</v>
+        <v>0.13879313332935</v>
       </c>
       <c r="N13" t="n">
-        <v>9.30099312452254</v>
+        <v>1.98940458034833</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.118453321391658</v>
+        <v>0.342749489866972</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.913793103448276</v>
+        <v>0.801980198019802</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.445</v>
+        <v>11.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0546632653061224</v>
+        <v>0.0918612419256165</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0173569356116602</v>
+        <v>-0.324235245415968</v>
       </c>
       <c r="M14" t="n">
-        <v>0.139332766851445</v>
+        <v>0.718889035649083</v>
       </c>
       <c r="N14" t="n">
-        <v>3.78292493467975</v>
+        <v>0.798793408048839</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.84835998892821</v>
+        <v>0.047298257165365</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.803921568627451</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.75</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.318717277486911</v>
+        <v>-0.0991634424603174</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.0088714022459</v>
+        <v>-0.262508192794979</v>
       </c>
       <c r="M15" t="n">
-        <v>0.199026673310958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.71248746797371</v>
+        <v>-4.5074292027417</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.41600684069465</v>
+        <v>0.770614505971403</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.803571428571429</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.925</v>
+        <v>10.665</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0120547508761611</v>
+        <v>0.012545080225726</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.109109379720608</v>
+        <v>-0.013376772190193</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1054514010675</v>
+        <v>0.0367155909279264</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.62622082473564</v>
+        <v>0.117628506570333</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.842438874545116</v>
+        <v>0.69519868150525</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.813559322033898</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.635</v>
+        <v>0.014</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0222301050431721</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0101281641388462</v>
+        <v>-0.0004277474797953</v>
       </c>
       <c r="M17" t="n">
-        <v>0.044369866199025</v>
+        <v>0.0002107946778402</v>
       </c>
       <c r="N17" t="n">
-        <v>0.209027786019484</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.222972442080749</v>
+        <v>0.385568781445346</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.23728813559322</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.014</v>
+        <v>92.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001243192648059</v>
+        <v>1.16853583716603</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0001600569675723</v>
+        <v>-2.46479864235266</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000528390596745</v>
+        <v>6.16916797099938</v>
       </c>
       <c r="N18" t="n">
-        <v>0.887994748614217</v>
+        <v>1.26328198612544</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.489458849527992</v>
+        <v>0.360992808252601</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="H19" t="n">
-        <v>0.61864406779661</v>
+        <v>0.112068965517241</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>92</v>
+        <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0.166173794358508</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.59488624922948</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.74629082085232</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.180623689520117</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.342836637271398</v>
+        <v>0.999986373888289</v>
       </c>
       <c r="G20" t="n">
-        <v>0.913793103448276</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="H20" t="n">
-        <v>0.112068965517241</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0002347329305313</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.994756074773926</v>
+        <v>6.3431818902356e-08</v>
       </c>
       <c r="G21" t="n">
-        <v>0.330508474576271</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.101694915254237</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003</v>
+        <v>0.1493</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0103073892700268</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0001620697878255</v>
+        <v>0.0073867540515564</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0139719461075067</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.90381062962276</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.10932899742215e-06</v>
+        <v>0.94131214780363</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.872881355932203</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1285</v>
+        <v>7.71</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008653263552723001</v>
+        <v>0.011660015961692</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0053740637120228</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0111921801341216</v>
+        <v>0.022984063439166</v>
       </c>
       <c r="N22" t="n">
-        <v>6.73405723947318</v>
+        <v>0.151232373043994</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,11 +2451,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2465,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.995572972541205</v>
+        <v>1.73080575371728e-07</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.533898305084746</v>
+        <v>0.73109243697479</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.71</v>
+        <v>0.164</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0184936708860759</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006867059243993</v>
+        <v>0.0072008282846262</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0299498341214893</v>
+        <v>0.0139808612440191</v>
       </c>
       <c r="N23" t="n">
-        <v>0.23986602965079</v>
+        <v>6.11850040203699</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,7 +2538,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8.07663952745639e-06</v>
+        <v>2.12916660520658e-05</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.705882352941177</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.141</v>
+        <v>0.28</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0090020538566864</v>
+        <v>0.009970427661510401</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0056777737306633</v>
+        <v>0.0049711272262771</v>
       </c>
       <c r="M24" t="n">
-        <v>0.011236681579799</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="N24" t="n">
-        <v>6.38443535935209</v>
+        <v>3.56086702196802</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2643,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0180029914911404</v>
+        <v>0.0026640782927331</v>
       </c>
       <c r="G25" t="n">
-        <v>0.136752136752137</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.179487179487179</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0.021</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0005304240487946</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.0001997643237037</v>
       </c>
       <c r="M25" t="n">
-        <v>0.19991789819376</v>
+        <v>0.0008926013800494</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.52582880378407</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0017969857497689</v>
+        <v>0.0132435554276679</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.508474576271186</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.253</v>
+        <v>1.32</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0052074767904509</v>
+        <v>0.039984166596762</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001661737943585</v>
+        <v>0.0100292290704906</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009970427661510401</v>
+        <v>0.0777966856089911</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05829122152211</v>
+        <v>3.02910353005773</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0015788020031866</v>
+        <v>0.0378470136521875</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.305084745762712</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.021</v>
+        <v>10.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0006324675324675001</v>
+        <v>0.266068109991693</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0002662172011661</v>
+        <v>0.009181060907896501</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001003434065934</v>
+        <v>0.673665856520502</v>
       </c>
       <c r="N27" t="n">
-        <v>3.01175015460729</v>
+        <v>2.53398199992088</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0564836279117944</v>
+        <v>0.539238405426984</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8050847457627121</v>
+        <v>0.551020408163265</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.023301494678578</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0017033326305929</v>
+        <v>-0.0497625901561371</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0582726626294934</v>
+        <v>0.0627386569869223</v>
       </c>
       <c r="N28" t="n">
-        <v>1.77874005179984</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0500202294537516</v>
+        <v>0.936096050660722</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.731034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>10.64</v>
       </c>
       <c r="K29" t="n">
-        <v>0.264387427339251</v>
+        <v>0.0199416643483104</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-6.72236277260126e-06</v>
       </c>
       <c r="M29" t="n">
-        <v>0.648716227663098</v>
+        <v>0.0372073939543913</v>
       </c>
       <c r="N29" t="n">
-        <v>2.93763808154723</v>
+        <v>0.187421657408932</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.040830663755921</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0342857142857143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.188571428571429</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.477097110872938</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.509259259259259</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.6</v>
+        <v>0.013</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0001996447116698</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0497934118776282</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0602891085369532</v>
+        <v>0.0003865079365079</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.53572855130658</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.284972106418005</v>
+        <v>0.757572854992562</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>0.777777777777778</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>10.69</v>
+        <v>97</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0074987276071146</v>
+        <v>-0.662885662431942</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0300668137127573</v>
+        <v>-2.4590343371924</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0143284587901007</v>
+        <v>1.5051510989011</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0701471244818956</v>
+        <v>-0.683387280857672</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.002170728139653</v>
+        <v>0.999409277492176</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="H32" t="n">
-        <v>0.189655172413793</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0003319700068166</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0001273597343922</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0005188210227272</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.55361543705102</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.646009667341737</v>
+        <v>0.963885563183815</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0114942528735632</v>
+        <v>0.475903614457831</v>
       </c>
       <c r="H33" t="n">
-        <v>0.574712643678161</v>
+        <v>0.0903614457831325</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>95</v>
+        <v>0.002</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.496938775510204</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.28460242579743</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.4528213566388</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.523093447905478</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999434748704402</v>
+        <v>0.0046949889815919</v>
       </c>
       <c r="G34" t="n">
-        <v>0.823529411764706</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.855421686746988</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.15</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0033612879782724</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0014279877980879</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0054242467378339</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.24085865218163</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.65610353329492</v>
+        <v>0.999902053380211</v>
       </c>
       <c r="G35" t="n">
-        <v>0.435064935064935</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09740259740259739</v>
+        <v>0.563218390804598</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00225</v>
+        <v>7.67</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.023717532467532</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0134939689399026</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.034215456674473</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.309224673631447</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,11 +3630,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3644,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3659,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.194589263283408</v>
+        <v>0.0873895026125517</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.852564102564103</v>
+        <v>0.732954545454545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.14175</v>
+        <v>0.165</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0012876880679279</v>
+        <v>0.0018352187129164</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0009030521045622</v>
+        <v>-0.0004287632943859</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0033640784445449</v>
+        <v>0.0040100064860534</v>
       </c>
       <c r="N36" t="n">
-        <v>0.908421917409454</v>
+        <v>1.11225376540392</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3735,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.999999474617657</v>
+        <v>0.0455721589700698</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.563953488372093</v>
+        <v>0.422857142857143</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.67</v>
+        <v>0.273</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0324209003210218</v>
+        <v>0.001991548527808</v>
       </c>
       <c r="L37" t="n">
-        <v>0.021849047203367</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0411810835161262</v>
+        <v>0.0048861836196636</v>
       </c>
       <c r="N37" t="n">
-        <v>0.422697527001589</v>
+        <v>0.729504955241052</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3812,7 +3808,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.191088516883816</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0114285714285714</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.302857142857143</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.771431087112125</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.737142857142857</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>0.159</v>
+        <v>0.022</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0010802536926064</v>
+        <v>9.00073928043372e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0037098250015524</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0009941690480794001</v>
+        <v>0.0003650083466638</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.679404838117269</v>
+        <v>0.409124512746987</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,35 +3924,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.553979171583167</v>
+        <v>0.482234268401518</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.431034482758621</v>
+        <v>0.782857142857143</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.26</v>
+        <v>1.34</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.0009090343454454</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0016749816923961</v>
+        <v>-0.0199699366434552</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0014320867889369</v>
+        <v>0.0185495506193777</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.06783838398846979</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.214745208729229</v>
+        <v>0.269376147079809</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0114942528735632</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.304597701149425</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0215</v>
+        <v>1.6</v>
       </c>
       <c r="K40" t="n">
-        <v>7.93331885317115e-05</v>
+        <v>-0.0121209660515375</v>
       </c>
       <c r="L40" t="n">
-        <v>-8.822698817096771e-05</v>
+        <v>-0.0500989682654608</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0003577042955259</v>
+        <v>0.0327340592419859</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3689915745661</v>
+        <v>-0.757560378221094</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0156934935023066</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0315789473684211</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.173684210526316</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.38802078346612</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.804597701149425</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.33</v>
+        <v>0.012</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0049931647300068</v>
+        <v>0.0001994811578372</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0153128158658396</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.021880469222036</v>
+        <v>0.0003560087564652</v>
       </c>
       <c r="N41" t="n">
-        <v>0.375425919549386</v>
+        <v>1.66234298197706</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.515719171524109</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="H42" t="n">
+        <v>0.563157894736842</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>0.53</v>
+        <v>96</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0074220198158839</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.136755393543562</v>
+        <v>-1.62417154813585</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0889498676332745</v>
+        <v>1.79087503584376</v>
       </c>
       <c r="N42" t="n">
-        <v>1.40038109733659</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,7 +4263,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4273,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.999978794333458</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.811827956989247</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.209677419354839</v>
+      </c>
+      <c r="I43" t="n">
         <v>5</v>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>113</v>
+        <v>0.005</v>
       </c>
       <c r="K43" t="n">
-        <v>0.09083111940236201</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-10.1419484954134</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4.19073694919658</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0803815215950107</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4321,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4350,7 +4354,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4360,14 +4368,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4375,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.0352260777791571</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.831395348837209</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.55</v>
+        <v>0.1555</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0565853024067716</v>
+        <v>0.0024874168297456</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.07005837768287</v>
+        <v>0.0002342457894472</v>
       </c>
       <c r="M44" t="n">
-        <v>0.724261147119698</v>
+        <v>0.0044910287488445</v>
       </c>
       <c r="N44" t="n">
-        <v>1.24363301992905</v>
+        <v>1.59962497089749</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4437,7 +4445,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4447,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4462,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.200839083234887</v>
+        <v>0.42242093692619</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.888888888888889</v>
+        <v>0.727748691099476</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.55</v>
+        <v>0.167</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0122526275195393</v>
+        <v>0.0001812655086848</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0496224449358041</v>
+        <v>-0.0022711696605064</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0268398529371801</v>
+        <v>0.002120467787053</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.22775045809805</v>
+        <v>0.108542220769379</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4495,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4524,7 +4536,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4534,11 +4550,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -4549,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.161618161662385</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>115.025</v>
+        <v>0.53</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.490859751895245</v>
+        <v>0.0616048677072223</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.11059183702117</v>
+        <v>0.0069973522205323</v>
       </c>
       <c r="M46" t="n">
-        <v>0.41514774331527</v>
+        <v>0.0889498676332745</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.426741796909581</v>
+        <v>11.6235599447589</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4582,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4621,11 +4637,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4636,7 +4652,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.087654040404137</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4648,19 +4664,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.96</v>
+        <v>113</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.142290209095895</v>
+        <v>2.16526953981434</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.5093134245711149</v>
+        <v>-6.429050712263</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0313721851355912</v>
+        <v>3.84729446544793</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.86875421564305</v>
+        <v>1.91616773434897</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4669,7 +4685,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4699,6 +4715,354 @@
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.81465840603186</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0673846563761758</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.902784449295401</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17.9045803523486</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.200839083234887</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0136012389256565</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0496224449358041</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0284104962766166</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-2.28977086290514</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.326711047377659</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>115.025</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.379283489096573</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.90660895619063</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.810976041603421</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.329740047030274</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangawhero at u/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.232756084937093</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.142290209095895</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.5093134245711149</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.289379965549458</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2.7629166814737</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1805247</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5635122</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
+++ b/trend_results/Rivers/MangawheroatusOhakuneSTP_9521c76765.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,55 +139,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.754232922464983</v>
+        <v>0.891697754727005</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.936170212765957</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="K2">
-        <v>-0.689150943396226</v>
+        <v>-1.67545871559633</v>
       </c>
       <c r="L2">
-        <v>-3.56683676182926</v>
+        <v>-4.94508040452328</v>
       </c>
       <c r="M2">
-        <v>1.23022933492147</v>
+        <v>0.7277884350863399</v>
       </c>
       <c r="N2">
-        <v>-4.92250673854447</v>
+        <v>-12.6449714384629</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -740,31 +740,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.115433325725747</v>
+        <v>0.41201106565094</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.844827586206897</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.915</v>
+        <v>10.87</v>
       </c>
       <c r="K3">
-        <v>-0.0543526785714285</v>
+        <v>-0.0066549026735919</v>
       </c>
       <c r="L3">
-        <v>-0.102277105441188</v>
+        <v>-0.0735142779347405</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0571795005275468</v>
       </c>
       <c r="N3">
-        <v>-0.497963156861461</v>
+        <v>-0.0612226556908187</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -808,34 +808,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.399127533338428</v>
+        <v>0.0900512183610427</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.396551724137931</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0004809084924292</v>
       </c>
       <c r="L4">
-        <v>-0.0008013203578745</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001003434065934</v>
+        <v>0.001273256506915</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.37189538572027</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -876,37 +876,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.08976537199573641</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G5">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.741379310344828</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>110</v>
+        <v>122.5</v>
       </c>
       <c r="K5">
-        <v>14.9602897102897</v>
+        <v>-0.499327904238619</v>
       </c>
       <c r="L5">
-        <v>-2.0140787922685</v>
+        <v>-16.9999194661738</v>
       </c>
       <c r="M5">
-        <v>31.7209662210669</v>
+        <v>21.3714739116138</v>
       </c>
       <c r="N5">
-        <v>13.6002633729906</v>
+        <v>-0.407614615704995</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.617497139536524</v>
+        <v>0.53455202685882</v>
       </c>
       <c r="G6">
-        <v>0.875</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="H6">
-        <v>0.178571428571429</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -983,7 +983,7 @@
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1805247</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.998654926715525</v>
+        <v>0.997796892649597</v>
       </c>
       <c r="G7">
-        <v>0.5344827586206899</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="H7">
-        <v>0.0862068965517241</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.000431227863046</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1095,31 +1095,31 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.0002652281736915</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.862068965517241</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1585</v>
+        <v>0.1755</v>
       </c>
       <c r="K8">
-        <v>0.0217804217840982</v>
+        <v>0.0054042091836734</v>
       </c>
       <c r="L8">
-        <v>0.0123485105395796</v>
+        <v>-0.0072788516758216</v>
       </c>
       <c r="M8">
-        <v>0.030471237179816</v>
+        <v>0.0220755494505494</v>
       </c>
       <c r="N8">
-        <v>13.7415910309768</v>
+        <v>3.07932147217862</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1166,31 +1166,31 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0057057190973609</v>
+        <v>0.077870190004786</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.775862068965517</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.75</v>
+        <v>7.71</v>
       </c>
       <c r="K9">
-        <v>-0.0565791738382099</v>
+        <v>-0.0364520958083831</v>
       </c>
       <c r="L9">
-        <v>-0.09947115163719029</v>
+        <v>-0.07876519487240501</v>
       </c>
       <c r="M9">
-        <v>-0.0208240080185201</v>
+        <v>0.0059917996793501</v>
       </c>
       <c r="N9">
-        <v>-0.730053855976902</v>
+        <v>-0.472789828902505</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
@@ -1234,31 +1234,31 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0007269571474004</v>
+        <v>0.139508156605682</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.898305084745763</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.165</v>
+        <v>0.187</v>
       </c>
       <c r="K10">
-        <v>0.0226892926152795</v>
+        <v>0.0137377505838848</v>
       </c>
       <c r="L10">
-        <v>0.0135126516392187</v>
+        <v>-0.0057733789827296</v>
       </c>
       <c r="M10">
-        <v>0.0317596717913433</v>
+        <v>0.0228734737779056</v>
       </c>
       <c r="N10">
-        <v>13.7510864335027</v>
+        <v>7.3463906865694</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1305,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>5.19713471524434E-05</v>
+        <v>0.0888459888155481</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="K11">
-        <v>0.030103021978022</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L11">
-        <v>0.0196900269541779</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0399673645264503</v>
+        <v>0.0250571055590762</v>
       </c>
       <c r="N11">
-        <v>10.9465534465534</v>
+        <v>3.52082128397918</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1805247</v>
@@ -1373,40 +1373,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>0.0280386810377511</v>
+        <v>0.6088494208773489</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.482758620689655</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0225</v>
+        <v>0.0205</v>
       </c>
       <c r="K12">
-        <v>0.0012277310924369</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M12">
-        <v>0.0027894462454921</v>
+        <v>0.000648447265002</v>
       </c>
       <c r="N12">
-        <v>5.45658263305322</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1805247</v>
@@ -1441,19 +1441,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.150355523574156</v>
+        <v>0.947042590513513</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1462,22 +1462,22 @@
         <v>1.42</v>
       </c>
       <c r="K13">
-        <v>0.0282495450409463</v>
+        <v>-0.112818532818533</v>
       </c>
       <c r="L13">
-        <v>-0.02279784493815</v>
+        <v>-0.235941924004151</v>
       </c>
       <c r="M13">
-        <v>0.13879313332935</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.98940458034833</v>
+        <v>-7.94496709989668</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1805247</v>
@@ -1518,31 +1518,31 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.342749489866972</v>
+        <v>0.0905115798217833</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.801980198019802</v>
+        <v>0.831578947368421</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="K14">
-        <v>0.0918612419256165</v>
+        <v>0.39175604746691</v>
       </c>
       <c r="L14">
-        <v>-0.324235245415968</v>
+        <v>-0.0623395730139624</v>
       </c>
       <c r="M14">
-        <v>0.718889035649083</v>
+        <v>1.0942136349417</v>
       </c>
       <c r="N14">
-        <v>0.798793408048839</v>
+        <v>3.73100997587533</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
@@ -1589,37 +1589,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.047298257165365</v>
+        <v>0.073998076929723</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.854166666666667</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>-0.0991634424603174</v>
+        <v>-0.0549248120300752</v>
       </c>
       <c r="L15">
-        <v>-0.262508192794979</v>
+        <v>-0.208533977361462</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.007957627808384099</v>
       </c>
       <c r="N15">
-        <v>-4.5074292027417</v>
+        <v>-2.74624060150376</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1805247</v>
@@ -1660,7 +1660,7 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.770614505971403</v>
+        <v>0.897969523449651</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1672,25 +1672,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.665</v>
+        <v>10.765</v>
       </c>
       <c r="K16">
-        <v>0.012545080225726</v>
+        <v>0.0222301050431721</v>
       </c>
       <c r="L16">
-        <v>-0.013376772190193</v>
+        <v>-0.0033874558328635</v>
       </c>
       <c r="M16">
-        <v>0.0367155909279264</v>
+        <v>0.0422067464744473</v>
       </c>
       <c r="N16">
-        <v>0.117628506570333</v>
+        <v>0.206503530359239</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1805247</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.69519868150525</v>
+        <v>0.7558196575759319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.228813559322034</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0004277474797953</v>
+        <v>-0.0003573998546672</v>
       </c>
       <c r="M17">
-        <v>0.0002107946778402</v>
+        <v>0.000117792292354</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1802,37 +1802,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.385568781445346</v>
+        <v>0.271662092424094</v>
       </c>
       <c r="G18">
         <v>0.0169491525423729</v>
       </c>
       <c r="H18">
-        <v>0.627118644067797</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="K18">
-        <v>1.16853583716603</v>
+        <v>1.59744161050658</v>
       </c>
       <c r="L18">
-        <v>-2.46479864235266</v>
+        <v>-1.90163999023937</v>
       </c>
       <c r="M18">
-        <v>6.16916797099938</v>
+        <v>5.99005379381297</v>
       </c>
       <c r="N18">
-        <v>1.26328198612544</v>
+        <v>1.74583782569025</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1805247</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>0.360992808252601</v>
+        <v>0.0747901389632761</v>
       </c>
       <c r="G19">
         <v>0.913793103448276</v>
@@ -1941,28 +1941,28 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.999986373888289</v>
+        <v>0.999995810339546</v>
       </c>
       <c r="G20">
-        <v>0.423728813559322</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="H20">
-        <v>0.09322033898305079</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.0002347329305313</v>
+        <v>-0.0001904558851401</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2015,37 +2015,37 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>6.3431818902356E-08</v>
+        <v>0.000634665195905</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.88135593220339</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1493</v>
+        <v>0.15695</v>
       </c>
       <c r="K21">
-        <v>0.0103073892700268</v>
+        <v>0.0059122099524741</v>
       </c>
       <c r="L21">
-        <v>0.0073867540515564</v>
+        <v>0.0029952645666737</v>
       </c>
       <c r="M21">
-        <v>0.0139719461075067</v>
+        <v>0.009448005087492399</v>
       </c>
       <c r="N21">
-        <v>6.90381062962276</v>
+        <v>3.76693848516989</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1805247</v>
@@ -2080,43 +2080,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.94131214780363</v>
+        <v>0.836410094704554</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.567796610169492</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.71</v>
+        <v>7.705</v>
       </c>
       <c r="K22">
-        <v>0.011660015961692</v>
+        <v>0.009995894909688</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.0044721203915208</v>
       </c>
       <c r="M22">
-        <v>0.022984063439166</v>
+        <v>0.0199930347389793</v>
       </c>
       <c r="N22">
-        <v>0.151232373043994</v>
+        <v>0.129732575077068</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1805247</v>
@@ -2154,37 +2154,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>1.73080575371728E-07</v>
+        <v>0.0006530035153154</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.73109243697479</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="K23">
-        <v>0.0100343406593407</v>
+        <v>0.006643929058663</v>
       </c>
       <c r="L23">
-        <v>0.0072008282846262</v>
+        <v>0.003289104583594</v>
       </c>
       <c r="M23">
-        <v>0.0139808612440191</v>
+        <v>0.009546354960289299</v>
       </c>
       <c r="N23">
-        <v>6.11850040203699</v>
+        <v>4.02662367191699</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q23">
         <v>1805247</v>
@@ -2225,13 +2225,13 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>2.12916660520658E-05</v>
+        <v>0.0037667272043162</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.449152542372881</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2240,22 +2240,22 @@
         <v>0.28</v>
       </c>
       <c r="K24">
-        <v>0.009970427661510401</v>
+        <v>0.0049960121095289</v>
       </c>
       <c r="L24">
-        <v>0.0049711272262771</v>
+        <v>0.001534628748697</v>
       </c>
       <c r="M24">
-        <v>0.0133791208791209</v>
+        <v>0.009658446034789801</v>
       </c>
       <c r="N24">
-        <v>3.56086702196802</v>
+        <v>1.78429003911749</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1805247</v>
@@ -2296,13 +2296,13 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0026640782927331</v>
+        <v>0.0773790045171513</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.296610169491525</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2311,22 +2311,22 @@
         <v>0.021</v>
       </c>
       <c r="K25">
-        <v>0.0005304240487946</v>
+        <v>0.0002350386100386</v>
       </c>
       <c r="L25">
-        <v>0.0001997643237037</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0008926013800494</v>
+        <v>0.0005929383116882999</v>
       </c>
       <c r="N25">
-        <v>2.52582880378407</v>
+        <v>1.11923147637433</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1805247</v>
@@ -2367,37 +2367,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0132435554276679</v>
+        <v>0.198798215422008</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.830508474576271</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.32</v>
+        <v>1.295</v>
       </c>
       <c r="K26">
-        <v>0.039984166596762</v>
+        <v>0.0138373099503237</v>
       </c>
       <c r="L26">
-        <v>0.0100292290704906</v>
+        <v>-0.0138987381223244</v>
       </c>
       <c r="M26">
-        <v>0.0777966856089911</v>
+        <v>0.0433103933514839</v>
       </c>
       <c r="N26">
-        <v>3.02910353005773</v>
+        <v>1.06851814288214</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1805247</v>
@@ -2438,37 +2438,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0378470136521875</v>
+        <v>0.252770048153081</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.717948717948718</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K27">
-        <v>0.266068109991693</v>
+        <v>0.103943027210884</v>
       </c>
       <c r="L27">
-        <v>0.009181060907896501</v>
+        <v>-0.200686813186813</v>
       </c>
       <c r="M27">
-        <v>0.673665856520502</v>
+        <v>0.441726757974903</v>
       </c>
       <c r="N27">
-        <v>2.53398199992088</v>
+        <v>0.9449366110080401</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1805247</v>
@@ -2503,19 +2503,19 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.539238405426984</v>
+        <v>0.784414528363502</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.551020408163265</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>1.6</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.0374083190167834</v>
       </c>
       <c r="L28">
-        <v>-0.0497625901561371</v>
+        <v>-0.0281965015371522</v>
       </c>
       <c r="M28">
-        <v>0.0627386569869223</v>
+        <v>0.110786734793479</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.33801993854896</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1805247</v>
@@ -2580,7 +2580,7 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.936096050660722</v>
+        <v>0.995464206558725</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2595,16 +2595,16 @@
         <v>10.64</v>
       </c>
       <c r="K29">
-        <v>0.0199416643483104</v>
+        <v>0.0283397991784573</v>
       </c>
       <c r="L29">
-        <v>-6.72236277260126E-06</v>
+        <v>0.0074897470950103</v>
       </c>
       <c r="M29">
-        <v>0.0372073939543913</v>
+        <v>0.0438653128684426</v>
       </c>
       <c r="N29">
-        <v>0.187421657408932</v>
+        <v>0.266351496038133</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30">
-        <v>0.040830663755921</v>
+        <v>0.413753763557573</v>
       </c>
       <c r="G30">
-        <v>0.0342857142857143</v>
+        <v>0.0284090909090909</v>
       </c>
       <c r="H30">
-        <v>0.188571428571429</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2666,22 +2666,22 @@
         <v>0.013</v>
       </c>
       <c r="K30">
-        <v>0.0001996447116698</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-0.0001557569296375</v>
       </c>
       <c r="M30">
-        <v>0.0003865079365079</v>
+        <v>0.0002139151303643</v>
       </c>
       <c r="N30">
-        <v>1.53572855130658</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1805247</v>
@@ -2722,31 +2722,31 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.757572854992562</v>
+        <v>0.880780029289596</v>
       </c>
       <c r="G31">
-        <v>0.0114285714285714</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H31">
-        <v>0.5600000000000001</v>
+        <v>0.613636363636364</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31">
-        <v>-0.662885662431942</v>
+        <v>-1.49149274047187</v>
       </c>
       <c r="L31">
-        <v>-2.4590343371924</v>
+        <v>-2.99409082641284</v>
       </c>
       <c r="M31">
-        <v>1.5051510989011</v>
+        <v>0.713619489342125</v>
       </c>
       <c r="N31">
-        <v>-0.683387280857672</v>
+        <v>-1.55363827132486</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
@@ -2790,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>0.999409277492176</v>
+        <v>0.998852533085015</v>
       </c>
       <c r="G32">
-        <v>0.837209302325581</v>
+        <v>0.839080459770115</v>
       </c>
       <c r="H32">
-        <v>0.186046511627907</v>
+        <v>0.183908045977011</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -2861,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.963885563183815</v>
+        <v>0.995395723017235</v>
       </c>
       <c r="G33">
-        <v>0.475903614457831</v>
+        <v>0.494318181818182</v>
       </c>
       <c r="H33">
-        <v>0.0903614457831325</v>
+        <v>0.08522727272727269</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1805247</v>
@@ -2935,13 +2935,13 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.0046949889815919</v>
+        <v>0.0130594247990109</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.855421686746988</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>0.15</v>
       </c>
       <c r="K34">
-        <v>0.0033612879782724</v>
+        <v>0.0025731898238747</v>
       </c>
       <c r="L34">
-        <v>0.0014279877980879</v>
+        <v>0.0008299330007424</v>
       </c>
       <c r="M34">
-        <v>0.0054242467378339</v>
+        <v>0.0044861497014134</v>
       </c>
       <c r="N34">
-        <v>2.24085865218163</v>
+        <v>1.71545988258317</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q34">
         <v>1805247</v>
@@ -3000,37 +3000,37 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.999902053380211</v>
+        <v>0.987960360282146</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.563218390804598</v>
+        <v>0.5284090909090911</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.67</v>
+        <v>7.695</v>
       </c>
       <c r="K35">
-        <v>0.023717532467532</v>
+        <v>0.0116693290734825</v>
       </c>
       <c r="L35">
-        <v>0.0134939689399026</v>
+        <v>0.0037089400211231</v>
       </c>
       <c r="M35">
-        <v>0.034215456674473</v>
+        <v>0.019920346846892</v>
       </c>
       <c r="N35">
-        <v>0.309224673631447</v>
+        <v>0.151648201084892</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
@@ -3074,13 +3074,13 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.0873895026125517</v>
+        <v>0.09894428704744949</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.732954545454545</v>
+        <v>0.717514124293785</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3089,22 +3089,22 @@
         <v>0.165</v>
       </c>
       <c r="K36">
-        <v>0.0018352187129164</v>
+        <v>0.0016944515999657</v>
       </c>
       <c r="L36">
-        <v>-0.0004287632943859</v>
+        <v>-0.0005017805012882</v>
       </c>
       <c r="M36">
-        <v>0.0040100064860534</v>
+        <v>0.0039553793977609</v>
       </c>
       <c r="N36">
-        <v>1.11225376540392</v>
+        <v>1.02694036361561</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1805247</v>
@@ -3145,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0455721589700698</v>
+        <v>0.139734901131846</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.422857142857143</v>
+        <v>0.409090909090909</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.273</v>
+        <v>0.2715</v>
       </c>
       <c r="K37">
-        <v>0.001991548527808</v>
+        <v>0.0009976782299918</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.0048861836196636</v>
+        <v>0.0033340940209949</v>
       </c>
       <c r="N37">
-        <v>0.729504955241052</v>
+        <v>0.367468961322948</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q37">
         <v>1805247</v>
@@ -3216,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.191088516883816</v>
+        <v>0.181639629169411</v>
       </c>
       <c r="G38">
-        <v>0.0114285714285714</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H38">
-        <v>0.302857142857143</v>
+        <v>0.289772727272727</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.022</v>
+        <v>0.0205</v>
       </c>
       <c r="K38">
-        <v>9.00073928043372E-05</v>
+        <v>7.313076670520501E-05</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.0003650083466638</v>
+        <v>0.0003240905057675</v>
       </c>
       <c r="N38">
-        <v>0.409124512746987</v>
+        <v>0.356735447342463</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1805247</v>
@@ -3287,37 +3287,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.482234268401518</v>
+        <v>0.731971188411071</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.782857142857143</v>
+        <v>0.761363636363636</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="K39">
-        <v>0.0009090343454454</v>
+        <v>-0.0062564234326824</v>
       </c>
       <c r="L39">
-        <v>-0.0199699366434552</v>
+        <v>-0.0299605327058212</v>
       </c>
       <c r="M39">
-        <v>0.0185495506193777</v>
+        <v>0.0110440452407115</v>
       </c>
       <c r="N39">
-        <v>0.06783838398846979</v>
+        <v>-0.473971472172911</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1805247</v>
@@ -3358,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.269376147079809</v>
+        <v>0.267020653425398</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>1.6</v>
       </c>
       <c r="K40">
-        <v>-0.0121209660515375</v>
+        <v>-0.01248291328305</v>
       </c>
       <c r="L40">
-        <v>-0.0500989682654608</v>
+        <v>-0.0529885577487352</v>
       </c>
       <c r="M40">
-        <v>0.0327340592419859</v>
+        <v>0.0333704524754284</v>
       </c>
       <c r="N40">
-        <v>-0.757560378221094</v>
+        <v>-0.780182080190622</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q40">
         <v>1805247</v>
@@ -3429,13 +3429,13 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.0156934935023066</v>
+        <v>0.0586088252700731</v>
       </c>
       <c r="G41">
-        <v>0.0315789473684211</v>
+        <v>0.0298507462686567</v>
       </c>
       <c r="H41">
-        <v>0.173684210526316</v>
+        <v>0.164179104477612</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -3444,22 +3444,22 @@
         <v>0.012</v>
       </c>
       <c r="K41">
-        <v>0.0001994811578372</v>
+        <v>0.0001237927517259</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.0003560087564652</v>
+        <v>0.0002662912651672</v>
       </c>
       <c r="N41">
-        <v>1.66234298197706</v>
+        <v>1.03160626438325</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1805247</v>
@@ -3497,40 +3497,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.515719171524109</v>
+        <v>0.605106305650948</v>
       </c>
       <c r="G42">
-        <v>0.0105263157894737</v>
+        <v>0.0099502487562189</v>
       </c>
       <c r="H42">
-        <v>0.563157894736842</v>
+        <v>0.601990049751244</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.298895253682488</v>
       </c>
       <c r="L42">
-        <v>-1.62417154813585</v>
+        <v>-1.7100319402646</v>
       </c>
       <c r="M42">
-        <v>1.79087503584376</v>
+        <v>1.35463218263548</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.314626582823671</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1805247</v>
@@ -3568,16 +3568,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>0.999978794333458</v>
+        <v>0.999870541218572</v>
       </c>
       <c r="G43">
-        <v>0.811827956989247</v>
+        <v>0.817258883248731</v>
       </c>
       <c r="H43">
-        <v>0.209677419354839</v>
+        <v>0.203045685279188</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -3642,37 +3642,37 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.0352260777791571</v>
+        <v>0.0647799673890436</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.831395348837209</v>
+        <v>0.808743169398907</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.1555</v>
+        <v>0.155</v>
       </c>
       <c r="K44">
-        <v>0.0024874168297456</v>
+        <v>0.0017800791958574</v>
       </c>
       <c r="L44">
-        <v>0.0002342457894472</v>
+        <v>-0.000131496405468</v>
       </c>
       <c r="M44">
-        <v>0.0044910287488445</v>
+        <v>0.0034365451452687</v>
       </c>
       <c r="N44">
-        <v>1.59962497089749</v>
+        <v>1.14843819087577</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1805247</v>
@@ -3710,40 +3710,40 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45">
-        <v>0.42242093692619</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.727748691099476</v>
+        <v>0.7128712871287129</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="K45">
-        <v>0.0001812655086848</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0022711696605064</v>
+        <v>-0.0019966990135203</v>
       </c>
       <c r="M45">
-        <v>0.002120467787053</v>
+        <v>0.0015001650210955</v>
       </c>
       <c r="N45">
-        <v>0.108542220769379</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q45">
         <v>1805247</v>
@@ -3772,49 +3772,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.95679463351315</v>
+        <v>0.777339655940596</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.756218905472637</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.53</v>
+        <v>1.31</v>
       </c>
       <c r="K46">
-        <v>0.0616048677072223</v>
+        <v>-0.0062974137931034</v>
       </c>
       <c r="L46">
-        <v>0.0069973522205323</v>
+        <v>-0.0224692412850307</v>
       </c>
       <c r="M46">
-        <v>0.0889498676332745</v>
+        <v>0.008018004564786499</v>
       </c>
       <c r="N46">
-        <v>11.6235599447589</v>
+        <v>-0.480718610160569</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q46">
         <v>1805247</v>
@@ -3833,6 +3833,9 @@
       </c>
       <c r="V46" t="s">
         <v>61</v>
+      </c>
+      <c r="W46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3840,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3852,7 +3855,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3864,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>113</v>
+        <v>0.53</v>
       </c>
       <c r="K47">
-        <v>2.16526953981434</v>
+        <v>0.0129086181000615</v>
       </c>
       <c r="L47">
-        <v>-6.429050712263</v>
+        <v>-0.0604300598276922</v>
       </c>
       <c r="M47">
-        <v>3.84729446544793</v>
+        <v>0.0461618312930287</v>
       </c>
       <c r="N47">
-        <v>1.91616773434897</v>
+        <v>2.43558832076631</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q47">
         <v>1805247</v>
@@ -3908,7 +3911,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -3920,7 +3923,7 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.95679463351315</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3932,25 +3935,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>4.55</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.81465840603186</v>
+        <v>-1.08078024119711</v>
       </c>
       <c r="L48">
-        <v>0.0673846563761758</v>
+        <v>-6.429050712263</v>
       </c>
       <c r="M48">
-        <v>0.902784449295401</v>
+        <v>0.8938948964233699</v>
       </c>
       <c r="N48">
-        <v>17.9045803523486</v>
+        <v>-0.956442691324874</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q48">
         <v>1805247</v>
@@ -3976,10 +3979,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3988,37 +3991,37 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.200839083234887</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.594</v>
+        <v>4.77</v>
       </c>
       <c r="K49">
-        <v>-0.0136012389256565</v>
+        <v>0.208760813898868</v>
       </c>
       <c r="L49">
-        <v>-0.0496224449358041</v>
+        <v>-0.912897526606446</v>
       </c>
       <c r="M49">
-        <v>0.0284104962766166</v>
+        <v>0.8518424928053721</v>
       </c>
       <c r="N49">
-        <v>-2.28977086290514</v>
+        <v>4.37653697901191</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q49">
         <v>1805247</v>
@@ -4044,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -4056,7 +4059,7 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.326711047377659</v>
+        <v>0.121517480147261</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4068,25 +4071,25 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>115.025</v>
+        <v>0.572</v>
       </c>
       <c r="K50">
-        <v>-0.379283489096573</v>
+        <v>-0.0162446143154969</v>
       </c>
       <c r="L50">
-        <v>-2.90660895619063</v>
+        <v>-0.0356380073703538</v>
       </c>
       <c r="M50">
-        <v>0.810976041603421</v>
+        <v>0.0021443065564646</v>
       </c>
       <c r="N50">
-        <v>-0.329740047030274</v>
+        <v>-2.83996753767428</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q50">
         <v>1805247</v>
@@ -4112,7 +4115,7 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -4124,54 +4127,122 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.232756084937093</v>
+        <v>0.161618161662385</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
+        <v>0.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>113.525</v>
+      </c>
+      <c r="K51">
+        <v>-0.296795543905638</v>
+      </c>
+      <c r="L51">
+        <v>-3.11268317876265</v>
+      </c>
+      <c r="M51">
+        <v>0.407654195591759</v>
+      </c>
+      <c r="N51">
+        <v>-0.261436286197435</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <v>1805247</v>
+      </c>
+      <c r="R51">
+        <v>5635122</v>
+      </c>
+      <c r="S51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>5.15</v>
-      </c>
-      <c r="K51">
-        <v>-0.142290209095895</v>
-      </c>
-      <c r="L51">
-        <v>-0.5093134245711149</v>
-      </c>
-      <c r="M51">
-        <v>0.289379965549458</v>
-      </c>
-      <c r="N51">
-        <v>-2.7629166814737</v>
-      </c>
-      <c r="O51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P51" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q51">
-        <v>1805247</v>
-      </c>
-      <c r="R51">
-        <v>5635122</v>
-      </c>
-      <c r="S51" t="s">
-        <v>58</v>
-      </c>
-      <c r="T51" t="s">
-        <v>59</v>
-      </c>
-      <c r="U51" t="s">
-        <v>60</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4.9795</v>
+      </c>
+      <c r="K52">
+        <v>-0.125606334841629</v>
+      </c>
+      <c r="L52">
+        <v>-0.417815736174417</v>
+      </c>
+      <c r="M52">
+        <v>0.18826236212292</v>
+      </c>
+      <c r="N52">
+        <v>-2.52246881899045</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>1805247</v>
+      </c>
+      <c r="R52">
+        <v>5635122</v>
+      </c>
+      <c r="S52" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" t="s">
+        <v>59</v>
+      </c>
+      <c r="U52" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" t="s">
         <v>61</v>
       </c>
     </row>
